--- a/Code/Results/Cases/Case_0_127/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_127/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.009840858040794</v>
+        <v>1.071110984775541</v>
       </c>
       <c r="D2">
-        <v>1.022866779902475</v>
+        <v>1.080671682254996</v>
       </c>
       <c r="E2">
-        <v>1.012426095690482</v>
+        <v>1.065238116930853</v>
       </c>
       <c r="F2">
-        <v>1.024684672349651</v>
+        <v>1.087893628158011</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051349823588626</v>
+        <v>1.047078001236949</v>
       </c>
       <c r="J2">
-        <v>1.031731162538782</v>
+        <v>1.076037234508205</v>
       </c>
       <c r="K2">
-        <v>1.034016477372494</v>
+        <v>1.083344506346445</v>
       </c>
       <c r="L2">
-        <v>1.023714987689868</v>
+        <v>1.067951896095224</v>
       </c>
       <c r="M2">
-        <v>1.03581049718544</v>
+        <v>1.090547718600062</v>
       </c>
       <c r="N2">
-        <v>1.033196339130806</v>
+        <v>1.077565330804402</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.020967003051797</v>
+        <v>1.07310119780953</v>
       </c>
       <c r="D3">
-        <v>1.033603492992683</v>
+        <v>1.082642305671393</v>
       </c>
       <c r="E3">
-        <v>1.022092042730617</v>
+        <v>1.066985779900424</v>
       </c>
       <c r="F3">
-        <v>1.036110304809837</v>
+        <v>1.090017158474467</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055130360438746</v>
+        <v>1.047596280181536</v>
       </c>
       <c r="J3">
-        <v>1.040901959522239</v>
+        <v>1.077680372855335</v>
       </c>
       <c r="K3">
-        <v>1.0438237332535</v>
+        <v>1.085130639702144</v>
       </c>
       <c r="L3">
-        <v>1.03244984460335</v>
+        <v>1.069512589696057</v>
       </c>
       <c r="M3">
-        <v>1.046301090318049</v>
+        <v>1.092487780279063</v>
       </c>
       <c r="N3">
-        <v>1.042380159697884</v>
+        <v>1.079210802596456</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.027851613431524</v>
+        <v>1.074383986401248</v>
       </c>
       <c r="D4">
-        <v>1.040252734568757</v>
+        <v>1.083912730216477</v>
       </c>
       <c r="E4">
-        <v>1.028074218652349</v>
+        <v>1.068111773981607</v>
       </c>
       <c r="F4">
-        <v>1.04318930735532</v>
+        <v>1.091386654773028</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05744950242988</v>
+        <v>1.047927900307911</v>
       </c>
       <c r="J4">
-        <v>1.046568742282563</v>
+        <v>1.078738353684974</v>
       </c>
       <c r="K4">
-        <v>1.049888455224647</v>
+        <v>1.086281275986368</v>
       </c>
       <c r="L4">
-        <v>1.037845220411087</v>
+        <v>1.070517154658589</v>
       </c>
       <c r="M4">
-        <v>1.052792988143159</v>
+        <v>1.093738175423016</v>
       </c>
       <c r="N4">
-        <v>1.048054989939716</v>
+        <v>1.080270285880226</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.030676804362872</v>
+        <v>1.074922097258765</v>
       </c>
       <c r="D5">
-        <v>1.042982584154055</v>
+        <v>1.084445716840047</v>
       </c>
       <c r="E5">
-        <v>1.030529224060683</v>
+        <v>1.068584001522928</v>
       </c>
       <c r="F5">
-        <v>1.046096372190989</v>
+        <v>1.091961324227641</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0583962711342</v>
+        <v>1.048066426137761</v>
       </c>
       <c r="J5">
-        <v>1.048892210303301</v>
+        <v>1.079181896962761</v>
       </c>
       <c r="K5">
-        <v>1.052376206748737</v>
+        <v>1.086763803752896</v>
       </c>
       <c r="L5">
-        <v>1.040056914300249</v>
+        <v>1.070938224961158</v>
       </c>
       <c r="M5">
-        <v>1.055457083152818</v>
+        <v>1.094262681001888</v>
       </c>
       <c r="N5">
-        <v>1.05038175755155</v>
+        <v>1.080714459040341</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.03114728072287</v>
+        <v>1.075012380392874</v>
       </c>
       <c r="D6">
-        <v>1.043437254039493</v>
+        <v>1.084535143879804</v>
       </c>
       <c r="E6">
-        <v>1.030938058710205</v>
+        <v>1.068663224406758</v>
       </c>
       <c r="F6">
-        <v>1.046580604652088</v>
+        <v>1.092057751988088</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058553643679973</v>
+        <v>1.048089633444816</v>
       </c>
       <c r="J6">
-        <v>1.049279017175999</v>
+        <v>1.079256298244075</v>
       </c>
       <c r="K6">
-        <v>1.052790429428213</v>
+        <v>1.086844752628189</v>
       </c>
       <c r="L6">
-        <v>1.040425084058338</v>
+        <v>1.071008851922467</v>
       </c>
       <c r="M6">
-        <v>1.055900733840945</v>
+        <v>1.094350680481319</v>
       </c>
       <c r="N6">
-        <v>1.050769113734374</v>
+        <v>1.080788965980009</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.027889627639761</v>
+        <v>1.074391181240067</v>
       </c>
       <c r="D7">
-        <v>1.04028946109603</v>
+        <v>1.083919856297148</v>
       </c>
       <c r="E7">
-        <v>1.028107251444915</v>
+        <v>1.068118088358572</v>
       </c>
       <c r="F7">
-        <v>1.04322841496124</v>
+        <v>1.09139433768944</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057462261267267</v>
+        <v>1.047929754771916</v>
       </c>
       <c r="J7">
-        <v>1.04660001350253</v>
+        <v>1.078744285141987</v>
       </c>
       <c r="K7">
-        <v>1.049921933050775</v>
+        <v>1.086287728227788</v>
       </c>
       <c r="L7">
-        <v>1.037874989243253</v>
+        <v>1.070522785897896</v>
       </c>
       <c r="M7">
-        <v>1.052828834591448</v>
+        <v>1.093745188417867</v>
       </c>
       <c r="N7">
-        <v>1.048086305568403</v>
+        <v>1.080276225760588</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.013670206390899</v>
+        <v>1.071784640467511</v>
       </c>
       <c r="D8">
-        <v>1.026560835211954</v>
+        <v>1.081338652376608</v>
       </c>
       <c r="E8">
-        <v>1.015752561375014</v>
+        <v>1.06582976836583</v>
       </c>
       <c r="F8">
-        <v>1.028615112425634</v>
+        <v>1.088612247872047</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052655238369307</v>
+        <v>1.047253935684353</v>
       </c>
       <c r="J8">
-        <v>1.034889162280895</v>
+        <v>1.076593639315816</v>
       </c>
       <c r="K8">
-        <v>1.037392652114866</v>
+        <v>1.083949211343426</v>
       </c>
       <c r="L8">
-        <v>1.026723299541221</v>
+        <v>1.068480452201953</v>
       </c>
       <c r="M8">
-        <v>1.039420937291555</v>
+        <v>1.091204412876374</v>
       </c>
       <c r="N8">
-        <v>1.036358823594779</v>
+        <v>1.078122525770661</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9858671569836178</v>
+        <v>1.067151995260362</v>
       </c>
       <c r="D9">
-        <v>0.9997701778406781</v>
+        <v>1.076753087707624</v>
       </c>
       <c r="E9">
-        <v>0.9916120938752173</v>
+        <v>1.061759174754538</v>
       </c>
       <c r="F9">
-        <v>1.000122445454411</v>
+        <v>1.083673618590441</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04309127062217</v>
+        <v>1.046034026429075</v>
       </c>
       <c r="J9">
-        <v>1.011929046782035</v>
+        <v>1.072762779450461</v>
       </c>
       <c r="K9">
-        <v>1.012866984849837</v>
+        <v>1.079788213855876</v>
       </c>
       <c r="L9">
-        <v>1.004842740923879</v>
+        <v>1.064839950698121</v>
       </c>
       <c r="M9">
-        <v>1.013213536378812</v>
+        <v>1.08668813882116</v>
       </c>
       <c r="N9">
-        <v>1.01336610209835</v>
+        <v>1.074286225644892</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.964898541479308</v>
+        <v>1.064035259753549</v>
       </c>
       <c r="D10">
-        <v>0.9796117554363912</v>
+        <v>1.073669440421155</v>
       </c>
       <c r="E10">
-        <v>0.9734301531407357</v>
+        <v>1.059018222536608</v>
       </c>
       <c r="F10">
-        <v>0.9786971906159316</v>
+        <v>1.080355103131849</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035771594761351</v>
+        <v>1.045200701411179</v>
       </c>
       <c r="J10">
-        <v>0.9945775305781377</v>
+        <v>1.070179772437328</v>
       </c>
       <c r="K10">
-        <v>0.9943591487292239</v>
+        <v>1.076985637535481</v>
       </c>
       <c r="L10">
-        <v>0.9882962977120412</v>
+        <v>1.062383546520295</v>
       </c>
       <c r="M10">
-        <v>0.9934620293822686</v>
+        <v>1.08364936803436</v>
       </c>
       <c r="N10">
-        <v>0.9959899447511961</v>
+        <v>1.071699550465524</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9550627218420304</v>
+        <v>1.062678585718862</v>
       </c>
       <c r="D11">
-        <v>0.9701701267206245</v>
+        <v>1.072327511974273</v>
       </c>
       <c r="E11">
-        <v>0.9649112602211334</v>
+        <v>1.057824569412894</v>
       </c>
       <c r="F11">
-        <v>0.9686645738868467</v>
+        <v>1.078911569729347</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032314847973886</v>
+        <v>1.044834985820811</v>
       </c>
       <c r="J11">
-        <v>0.986432267601252</v>
+        <v>1.069054076943547</v>
       </c>
       <c r="K11">
-        <v>0.9856774027485844</v>
+        <v>1.075764969220191</v>
       </c>
       <c r="L11">
-        <v>0.980526689521795</v>
+        <v>1.061312607559926</v>
       </c>
       <c r="M11">
-        <v>0.9842026546956515</v>
+        <v>1.082326557686778</v>
       </c>
       <c r="N11">
-        <v>0.9878331145666086</v>
+        <v>1.070572256355024</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9512752547610898</v>
+        <v>1.062173555903316</v>
       </c>
       <c r="D12">
-        <v>0.9665369071394595</v>
+        <v>1.071828023407887</v>
       </c>
       <c r="E12">
-        <v>0.9616328090753244</v>
+        <v>1.057380142512671</v>
       </c>
       <c r="F12">
-        <v>0.9648041848402326</v>
+        <v>1.07837435260263</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030980502519374</v>
+        <v>1.044698399024002</v>
       </c>
       <c r="J12">
-        <v>0.9832951198154127</v>
+        <v>1.068634828298993</v>
       </c>
       <c r="K12">
-        <v>0.9823345698509091</v>
+        <v>1.075310456990384</v>
       </c>
       <c r="L12">
-        <v>0.9775339232442846</v>
+        <v>1.060913689112946</v>
       </c>
       <c r="M12">
-        <v>0.9806382401933715</v>
+        <v>1.081834123169161</v>
       </c>
       <c r="N12">
-        <v>0.9846915116710775</v>
+        <v>1.070152412329306</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9520941320075988</v>
+        <v>1.062281936855087</v>
       </c>
       <c r="D13">
-        <v>0.9673223182875645</v>
+        <v>1.07193521282272</v>
       </c>
       <c r="E13">
-        <v>0.9623415393416904</v>
+        <v>1.057475521620201</v>
       </c>
       <c r="F13">
-        <v>0.9656386952070185</v>
+        <v>1.078489634411654</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031269139781316</v>
+        <v>1.044727731182376</v>
       </c>
       <c r="J13">
-        <v>0.9839734183072263</v>
+        <v>1.068724809477051</v>
       </c>
       <c r="K13">
-        <v>0.9830572983726178</v>
+        <v>1.075408001743168</v>
       </c>
       <c r="L13">
-        <v>0.978181017098355</v>
+        <v>1.060999309782201</v>
       </c>
       <c r="M13">
-        <v>0.9814088385496265</v>
+        <v>1.08193980160754</v>
       </c>
       <c r="N13">
-        <v>0.9853707734245514</v>
+        <v>1.070242521290958</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9547525201630845</v>
+        <v>1.06263686244255</v>
       </c>
       <c r="D14">
-        <v>0.9698725065528292</v>
+        <v>1.072286245424768</v>
       </c>
       <c r="E14">
-        <v>0.9646427066603718</v>
+        <v>1.057787854555535</v>
       </c>
       <c r="F14">
-        <v>0.96834834053634</v>
+        <v>1.078867184292165</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032205626379953</v>
+        <v>1.044823710747249</v>
       </c>
       <c r="J14">
-        <v>0.9861753400791632</v>
+        <v>1.069019444633654</v>
       </c>
       <c r="K14">
-        <v>0.9854036110249613</v>
+        <v>1.075727421745425</v>
       </c>
       <c r="L14">
-        <v>0.9802815924347286</v>
+        <v>1.061279655926264</v>
       </c>
       <c r="M14">
-        <v>0.9839106980512389</v>
+        <v>1.082285875192097</v>
       </c>
       <c r="N14">
-        <v>0.987575822177968</v>
+        <v>1.070537574863278</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9563719798701559</v>
+        <v>1.062855396966986</v>
       </c>
       <c r="D15">
-        <v>0.9714263836491466</v>
+        <v>1.072502389881715</v>
       </c>
       <c r="E15">
-        <v>0.966044815285798</v>
+        <v>1.057980153045923</v>
       </c>
       <c r="F15">
-        <v>0.969999406493209</v>
+        <v>1.079099668450478</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032775705981283</v>
+        <v>1.044882748053749</v>
       </c>
       <c r="J15">
-        <v>0.9875166481689044</v>
+        <v>1.069200830454539</v>
       </c>
       <c r="K15">
-        <v>0.986832997770134</v>
+        <v>1.075924080068949</v>
       </c>
       <c r="L15">
-        <v>0.98156112699647</v>
+        <v>1.061452236667795</v>
       </c>
       <c r="M15">
-        <v>0.9854349517773195</v>
+        <v>1.082498957967713</v>
       </c>
       <c r="N15">
-        <v>0.9889190350790469</v>
+        <v>1.070719218272834</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9655337587933324</v>
+        <v>1.064125145206342</v>
       </c>
       <c r="D16">
-        <v>0.9802218290787256</v>
+        <v>1.07375835617497</v>
       </c>
       <c r="E16">
-        <v>0.9739805537983124</v>
+        <v>1.059097295576955</v>
       </c>
       <c r="F16">
-        <v>0.9793454909943426</v>
+        <v>1.080450763879989</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035994382742674</v>
+        <v>1.045224869032705</v>
       </c>
       <c r="J16">
-        <v>0.9951034635040633</v>
+        <v>1.070254326294937</v>
       </c>
       <c r="K16">
-        <v>0.9949198500573923</v>
+        <v>1.077066496425736</v>
       </c>
       <c r="L16">
-        <v>0.9887979316451103</v>
+        <v>1.062454465091943</v>
       </c>
       <c r="M16">
-        <v>0.9940601508230559</v>
+        <v>1.083737008361974</v>
       </c>
       <c r="N16">
-        <v>0.9965166245622017</v>
+        <v>1.071774210198163</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9710654305352289</v>
+        <v>1.064919698905674</v>
       </c>
       <c r="D17">
-        <v>0.9855361377322427</v>
+        <v>1.074544377660121</v>
       </c>
       <c r="E17">
-        <v>0.9787747366358392</v>
+        <v>1.05979620799476</v>
       </c>
       <c r="F17">
-        <v>0.9849930416202001</v>
+        <v>1.081296481151438</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037931938143603</v>
+        <v>1.045438158500299</v>
       </c>
       <c r="J17">
-        <v>0.9996827984986727</v>
+        <v>1.070913199364686</v>
       </c>
       <c r="K17">
-        <v>0.9998026144107306</v>
+        <v>1.077781173072116</v>
       </c>
       <c r="L17">
-        <v>0.9931654459813036</v>
+        <v>1.063081162997276</v>
       </c>
       <c r="M17">
-        <v>0.9992694150480949</v>
+        <v>1.084511707592875</v>
       </c>
       <c r="N17">
-        <v>1.00110246273776</v>
+        <v>1.072434018943245</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9742206102054816</v>
+        <v>1.065382465163932</v>
       </c>
       <c r="D18">
-        <v>0.9885686129423015</v>
+        <v>1.075002207483809</v>
       </c>
       <c r="E18">
-        <v>0.98151012962666</v>
+        <v>1.060203217396933</v>
       </c>
       <c r="F18">
-        <v>0.9882158978002736</v>
+        <v>1.081789139783535</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039034933551732</v>
+        <v>1.045562096474425</v>
       </c>
       <c r="J18">
-        <v>1.002294198033234</v>
+        <v>1.071296812585671</v>
       </c>
       <c r="K18">
-        <v>1.002587628244684</v>
+        <v>1.078197345552608</v>
       </c>
       <c r="L18">
-        <v>0.9956558419491049</v>
+        <v>1.063446002830638</v>
       </c>
       <c r="M18">
-        <v>1.002241188440375</v>
+        <v>1.084962903076655</v>
       </c>
       <c r="N18">
-        <v>1.003717570759193</v>
+        <v>1.072818176939004</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9752848780633573</v>
+        <v>1.065540141559102</v>
       </c>
       <c r="D19">
-        <v>0.9895916996547058</v>
+        <v>1.075158207473688</v>
       </c>
       <c r="E19">
-        <v>0.9824329357409397</v>
+        <v>1.060341886959066</v>
       </c>
       <c r="F19">
-        <v>0.9893032554567766</v>
+        <v>1.081957017133505</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039406611078634</v>
+        <v>1.045604276688563</v>
       </c>
       <c r="J19">
-        <v>1.003174939150162</v>
+        <v>1.071427497518625</v>
       </c>
       <c r="K19">
-        <v>1.00352702273858</v>
+        <v>1.078339134097936</v>
       </c>
       <c r="L19">
-        <v>0.9964957356919064</v>
+        <v>1.063570285458163</v>
       </c>
       <c r="M19">
-        <v>1.003243668642956</v>
+        <v>1.085116635799301</v>
       </c>
       <c r="N19">
-        <v>1.004599562629529</v>
+        <v>1.072949047459553</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.050000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9704794450894387</v>
+        <v>1.06483452174488</v>
       </c>
       <c r="D20">
-        <v>0.9849730429836994</v>
+        <v>1.074460111751689</v>
       </c>
       <c r="E20">
-        <v>0.9782667824298054</v>
+        <v>1.059721289201317</v>
       </c>
       <c r="F20">
-        <v>0.9843946143403119</v>
+        <v>1.081205809507146</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037726910925483</v>
+        <v>1.045415323265912</v>
       </c>
       <c r="J20">
-        <v>0.9991977558615505</v>
+        <v>1.070842580742321</v>
       </c>
       <c r="K20">
-        <v>0.9992853719587432</v>
+        <v>1.077704566235013</v>
       </c>
       <c r="L20">
-        <v>0.9927028611779521</v>
+        <v>1.063013997097562</v>
       </c>
       <c r="M20">
-        <v>0.9987175304621343</v>
+        <v>1.084428659586104</v>
       </c>
       <c r="N20">
-        <v>1.000616731284458</v>
+        <v>1.072363300034337</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9539735820151574</v>
+        <v>1.062532376354338</v>
       </c>
       <c r="D21">
-        <v>0.9691252020436503</v>
+        <v>1.07218290394459</v>
       </c>
       <c r="E21">
-        <v>0.9639683820908092</v>
+        <v>1.057695909537795</v>
       </c>
       <c r="F21">
-        <v>0.9675543031134206</v>
+        <v>1.078756033819399</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031931312028497</v>
+        <v>1.044795467773983</v>
       </c>
       <c r="J21">
-        <v>0.9855301674842344</v>
+        <v>1.068932712936376</v>
       </c>
       <c r="K21">
-        <v>0.9847161056389591</v>
+        <v>1.075633391169377</v>
       </c>
       <c r="L21">
-        <v>0.9796661226565756</v>
+        <v>1.061197132224731</v>
       </c>
       <c r="M21">
-        <v>0.9831775927323699</v>
+        <v>1.08218399532477</v>
       </c>
       <c r="N21">
-        <v>0.9869297333639524</v>
+        <v>1.070450719997042</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9428057393360235</v>
+        <v>1.06107854132562</v>
       </c>
       <c r="D22">
-        <v>0.9584173343045793</v>
+        <v>1.0707451195555</v>
       </c>
       <c r="E22">
-        <v>0.9543057018293916</v>
+        <v>1.056416377620987</v>
       </c>
       <c r="F22">
-        <v>0.9561772440704638</v>
+        <v>1.077209817746779</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027990900413307</v>
+        <v>1.04440143161127</v>
       </c>
       <c r="J22">
-        <v>0.9762789695807145</v>
+        <v>1.067725436732581</v>
       </c>
       <c r="K22">
-        <v>0.9748601481605562</v>
+        <v>1.07432477217194</v>
       </c>
       <c r="L22">
-        <v>0.9708401739952578</v>
+        <v>1.060048280003532</v>
       </c>
       <c r="M22">
-        <v>0.9726698648305345</v>
+        <v>1.080766398829621</v>
       </c>
       <c r="N22">
-        <v>0.9776653976982823</v>
+        <v>1.069241729322561</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9488092898580033</v>
+        <v>1.061849863122882</v>
       </c>
       <c r="D23">
-        <v>0.9641721124443114</v>
+        <v>1.071507896976914</v>
       </c>
       <c r="E23">
-        <v>0.9594988609766623</v>
+        <v>1.057095269251942</v>
       </c>
       <c r="F23">
-        <v>0.9622915836889254</v>
+        <v>1.078030071081642</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030110844457692</v>
+        <v>1.044610729585202</v>
       </c>
       <c r="J23">
-        <v>0.9812524204161787</v>
+        <v>1.068366059116709</v>
       </c>
       <c r="K23">
-        <v>0.9801582063678126</v>
+        <v>1.075019111550635</v>
       </c>
       <c r="L23">
-        <v>0.9755851563288006</v>
+        <v>1.060657935292459</v>
       </c>
       <c r="M23">
-        <v>0.9783178438108618</v>
+        <v>1.081518500238014</v>
       </c>
       <c r="N23">
-        <v>0.9826459114043955</v>
+        <v>1.069883261463955</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9707444457025095</v>
+        <v>1.064873011748176</v>
       </c>
       <c r="D24">
-        <v>0.9852276877634456</v>
+        <v>1.074498189874932</v>
       </c>
       <c r="E24">
-        <v>0.9784964922510898</v>
+        <v>1.059755143800258</v>
       </c>
       <c r="F24">
-        <v>0.9846652366185764</v>
+        <v>1.081246782077978</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037819637271541</v>
+        <v>1.045425642977837</v>
       </c>
       <c r="J24">
-        <v>0.9994171088704179</v>
+        <v>1.070874492408567</v>
       </c>
       <c r="K24">
-        <v>0.9995192850199045</v>
+        <v>1.07773918368685</v>
       </c>
       <c r="L24">
-        <v>0.9929120586415762</v>
+        <v>1.063044348646101</v>
       </c>
       <c r="M24">
-        <v>0.9989671081084772</v>
+        <v>1.084466187485497</v>
       </c>
       <c r="N24">
-        <v>1.000836395799758</v>
+        <v>1.072395257018808</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9934334994371171</v>
+        <v>1.068354508725117</v>
       </c>
       <c r="D25">
-        <v>1.007054077968125</v>
+        <v>1.077943134690414</v>
       </c>
       <c r="E25">
-        <v>0.9981786894123581</v>
+        <v>1.062816208833517</v>
       </c>
       <c r="F25">
-        <v>1.007866553468209</v>
+        <v>1.084954843379055</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045712267854173</v>
+        <v>1.046352896832358</v>
       </c>
       <c r="J25">
-        <v>1.018183891515885</v>
+        <v>1.073758171130946</v>
       </c>
       <c r="K25">
-        <v>1.019543866587919</v>
+        <v>1.080868855054144</v>
       </c>
       <c r="L25">
-        <v>1.010805344831269</v>
+        <v>1.065786186122342</v>
       </c>
       <c r="M25">
-        <v>1.020343966489976</v>
+        <v>1.087860504200513</v>
       </c>
       <c r="N25">
-        <v>1.019629829429162</v>
+        <v>1.075283030895736</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_127/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_127/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.071110984775541</v>
+        <v>1.009840858040792</v>
       </c>
       <c r="D2">
-        <v>1.080671682254996</v>
+        <v>1.022866779902473</v>
       </c>
       <c r="E2">
-        <v>1.065238116930853</v>
+        <v>1.01242609569048</v>
       </c>
       <c r="F2">
-        <v>1.087893628158011</v>
+        <v>1.024684672349649</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047078001236949</v>
+        <v>1.051349823588625</v>
       </c>
       <c r="J2">
-        <v>1.076037234508205</v>
+        <v>1.031731162538781</v>
       </c>
       <c r="K2">
-        <v>1.083344506346445</v>
+        <v>1.034016477372492</v>
       </c>
       <c r="L2">
-        <v>1.067951896095224</v>
+        <v>1.023714987689866</v>
       </c>
       <c r="M2">
-        <v>1.090547718600062</v>
+        <v>1.035810497185438</v>
       </c>
       <c r="N2">
-        <v>1.077565330804402</v>
+        <v>1.033196339130804</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.07310119780953</v>
+        <v>1.020967003051795</v>
       </c>
       <c r="D3">
-        <v>1.082642305671393</v>
+        <v>1.033603492992681</v>
       </c>
       <c r="E3">
-        <v>1.066985779900424</v>
+        <v>1.022092042730616</v>
       </c>
       <c r="F3">
-        <v>1.090017158474467</v>
+        <v>1.036110304809834</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047596280181536</v>
+        <v>1.055130360438745</v>
       </c>
       <c r="J3">
-        <v>1.077680372855335</v>
+        <v>1.040901959522237</v>
       </c>
       <c r="K3">
-        <v>1.085130639702144</v>
+        <v>1.043823733253498</v>
       </c>
       <c r="L3">
-        <v>1.069512589696057</v>
+        <v>1.032449844603348</v>
       </c>
       <c r="M3">
-        <v>1.092487780279063</v>
+        <v>1.046301090318047</v>
       </c>
       <c r="N3">
-        <v>1.079210802596456</v>
+        <v>1.042380159697882</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.074383986401248</v>
+        <v>1.027851613431522</v>
       </c>
       <c r="D4">
-        <v>1.083912730216477</v>
+        <v>1.040252734568755</v>
       </c>
       <c r="E4">
-        <v>1.068111773981607</v>
+        <v>1.028074218652347</v>
       </c>
       <c r="F4">
-        <v>1.091386654773028</v>
+        <v>1.043189307355318</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047927900307911</v>
+        <v>1.057449502429879</v>
       </c>
       <c r="J4">
-        <v>1.078738353684974</v>
+        <v>1.04656874228256</v>
       </c>
       <c r="K4">
-        <v>1.086281275986368</v>
+        <v>1.049888455224644</v>
       </c>
       <c r="L4">
-        <v>1.070517154658589</v>
+        <v>1.037845220411085</v>
       </c>
       <c r="M4">
-        <v>1.093738175423016</v>
+        <v>1.052792988143157</v>
       </c>
       <c r="N4">
-        <v>1.080270285880226</v>
+        <v>1.048054989939714</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.074922097258765</v>
+        <v>1.030676804362872</v>
       </c>
       <c r="D5">
-        <v>1.084445716840047</v>
+        <v>1.042982584154054</v>
       </c>
       <c r="E5">
-        <v>1.068584001522928</v>
+        <v>1.030529224060683</v>
       </c>
       <c r="F5">
-        <v>1.091961324227641</v>
+        <v>1.046096372190988</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048066426137761</v>
+        <v>1.0583962711342</v>
       </c>
       <c r="J5">
-        <v>1.079181896962761</v>
+        <v>1.0488922103033</v>
       </c>
       <c r="K5">
-        <v>1.086763803752896</v>
+        <v>1.052376206748736</v>
       </c>
       <c r="L5">
-        <v>1.070938224961158</v>
+        <v>1.040056914300248</v>
       </c>
       <c r="M5">
-        <v>1.094262681001888</v>
+        <v>1.055457083152817</v>
       </c>
       <c r="N5">
-        <v>1.080714459040341</v>
+        <v>1.050381757551549</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.075012380392874</v>
+        <v>1.03114728072287</v>
       </c>
       <c r="D6">
-        <v>1.084535143879804</v>
+        <v>1.043437254039493</v>
       </c>
       <c r="E6">
-        <v>1.068663224406758</v>
+        <v>1.030938058710205</v>
       </c>
       <c r="F6">
-        <v>1.092057751988088</v>
+        <v>1.046580604652088</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048089633444816</v>
+        <v>1.058553643679974</v>
       </c>
       <c r="J6">
-        <v>1.079256298244075</v>
+        <v>1.049279017175998</v>
       </c>
       <c r="K6">
-        <v>1.086844752628189</v>
+        <v>1.052790429428212</v>
       </c>
       <c r="L6">
-        <v>1.071008851922467</v>
+        <v>1.040425084058338</v>
       </c>
       <c r="M6">
-        <v>1.094350680481319</v>
+        <v>1.055900733840945</v>
       </c>
       <c r="N6">
-        <v>1.080788965980009</v>
+        <v>1.050769113734374</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.074391181240067</v>
+        <v>1.027889627639761</v>
       </c>
       <c r="D7">
-        <v>1.083919856297148</v>
+        <v>1.04028946109603</v>
       </c>
       <c r="E7">
-        <v>1.068118088358572</v>
+        <v>1.028107251444915</v>
       </c>
       <c r="F7">
-        <v>1.09139433768944</v>
+        <v>1.04322841496124</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047929754771916</v>
+        <v>1.057462261267267</v>
       </c>
       <c r="J7">
-        <v>1.078744285141987</v>
+        <v>1.04660001350253</v>
       </c>
       <c r="K7">
-        <v>1.086287728227788</v>
+        <v>1.049921933050775</v>
       </c>
       <c r="L7">
-        <v>1.070522785897896</v>
+        <v>1.037874989243253</v>
       </c>
       <c r="M7">
-        <v>1.093745188417867</v>
+        <v>1.052828834591448</v>
       </c>
       <c r="N7">
-        <v>1.080276225760588</v>
+        <v>1.048086305568403</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.071784640467511</v>
+        <v>1.013670206390898</v>
       </c>
       <c r="D8">
-        <v>1.081338652376608</v>
+        <v>1.026560835211953</v>
       </c>
       <c r="E8">
-        <v>1.06582976836583</v>
+        <v>1.015752561375012</v>
       </c>
       <c r="F8">
-        <v>1.088612247872047</v>
+        <v>1.028615112425632</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047253935684353</v>
+        <v>1.052655238369307</v>
       </c>
       <c r="J8">
-        <v>1.076593639315816</v>
+        <v>1.034889162280893</v>
       </c>
       <c r="K8">
-        <v>1.083949211343426</v>
+        <v>1.037392652114864</v>
       </c>
       <c r="L8">
-        <v>1.068480452201953</v>
+        <v>1.026723299541219</v>
       </c>
       <c r="M8">
-        <v>1.091204412876374</v>
+        <v>1.039420937291553</v>
       </c>
       <c r="N8">
-        <v>1.078122525770661</v>
+        <v>1.036358823594778</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.067151995260362</v>
+        <v>0.985867156983616</v>
       </c>
       <c r="D9">
-        <v>1.076753087707624</v>
+        <v>0.9997701778406762</v>
       </c>
       <c r="E9">
-        <v>1.061759174754538</v>
+        <v>0.991612093875216</v>
       </c>
       <c r="F9">
-        <v>1.083673618590441</v>
+        <v>1.000122445454409</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046034026429075</v>
+        <v>1.043091270622169</v>
       </c>
       <c r="J9">
-        <v>1.072762779450461</v>
+        <v>1.011929046782034</v>
       </c>
       <c r="K9">
-        <v>1.079788213855876</v>
+        <v>1.012866984849835</v>
       </c>
       <c r="L9">
-        <v>1.064839950698121</v>
+        <v>1.004842740923878</v>
       </c>
       <c r="M9">
-        <v>1.08668813882116</v>
+        <v>1.01321353637881</v>
       </c>
       <c r="N9">
-        <v>1.074286225644892</v>
+        <v>1.013366102098348</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.064035259753549</v>
+        <v>0.9648985414793085</v>
       </c>
       <c r="D10">
-        <v>1.073669440421155</v>
+        <v>0.9796117554363918</v>
       </c>
       <c r="E10">
-        <v>1.059018222536608</v>
+        <v>0.9734301531407362</v>
       </c>
       <c r="F10">
-        <v>1.080355103131849</v>
+        <v>0.9786971906159325</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045200701411179</v>
+        <v>1.035771594761351</v>
       </c>
       <c r="J10">
-        <v>1.070179772437328</v>
+        <v>0.9945775305781382</v>
       </c>
       <c r="K10">
-        <v>1.076985637535481</v>
+        <v>0.9943591487292246</v>
       </c>
       <c r="L10">
-        <v>1.062383546520295</v>
+        <v>0.9882962977120417</v>
       </c>
       <c r="M10">
-        <v>1.08364936803436</v>
+        <v>0.9934620293822695</v>
       </c>
       <c r="N10">
-        <v>1.071699550465524</v>
+        <v>0.9959899447511964</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.062678585718862</v>
+        <v>0.9550627218420306</v>
       </c>
       <c r="D11">
-        <v>1.072327511974273</v>
+        <v>0.9701701267206243</v>
       </c>
       <c r="E11">
-        <v>1.057824569412894</v>
+        <v>0.9649112602211333</v>
       </c>
       <c r="F11">
-        <v>1.078911569729347</v>
+        <v>0.968664573886847</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044834985820811</v>
+        <v>1.032314847973886</v>
       </c>
       <c r="J11">
-        <v>1.069054076943547</v>
+        <v>0.986432267601252</v>
       </c>
       <c r="K11">
-        <v>1.075764969220191</v>
+        <v>0.9856774027485842</v>
       </c>
       <c r="L11">
-        <v>1.061312607559926</v>
+        <v>0.9805266895217948</v>
       </c>
       <c r="M11">
-        <v>1.082326557686778</v>
+        <v>0.9842026546956516</v>
       </c>
       <c r="N11">
-        <v>1.070572256355024</v>
+        <v>0.9878331145666086</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.062173555903316</v>
+        <v>0.951275254761091</v>
       </c>
       <c r="D12">
-        <v>1.071828023407887</v>
+        <v>0.9665369071394611</v>
       </c>
       <c r="E12">
-        <v>1.057380142512671</v>
+        <v>0.9616328090753253</v>
       </c>
       <c r="F12">
-        <v>1.07837435260263</v>
+        <v>0.9648041848402341</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044698399024002</v>
+        <v>1.030980502519375</v>
       </c>
       <c r="J12">
-        <v>1.068634828298993</v>
+        <v>0.983295119815414</v>
       </c>
       <c r="K12">
-        <v>1.075310456990384</v>
+        <v>0.9823345698509105</v>
       </c>
       <c r="L12">
-        <v>1.060913689112946</v>
+        <v>0.9775339232442853</v>
       </c>
       <c r="M12">
-        <v>1.081834123169161</v>
+        <v>0.9806382401933731</v>
       </c>
       <c r="N12">
-        <v>1.070152412329306</v>
+        <v>0.9846915116710787</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.062281936855087</v>
+        <v>0.9520941320075971</v>
       </c>
       <c r="D13">
-        <v>1.07193521282272</v>
+        <v>0.9673223182875624</v>
       </c>
       <c r="E13">
-        <v>1.057475521620201</v>
+        <v>0.9623415393416888</v>
       </c>
       <c r="F13">
-        <v>1.078489634411654</v>
+        <v>0.9656386952070161</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044727731182376</v>
+        <v>1.031269139781315</v>
       </c>
       <c r="J13">
-        <v>1.068724809477051</v>
+        <v>0.9839734183072247</v>
       </c>
       <c r="K13">
-        <v>1.075408001743168</v>
+        <v>0.9830572983726159</v>
       </c>
       <c r="L13">
-        <v>1.060999309782201</v>
+        <v>0.9781810170983535</v>
       </c>
       <c r="M13">
-        <v>1.08193980160754</v>
+        <v>0.9814088385496241</v>
       </c>
       <c r="N13">
-        <v>1.070242521290958</v>
+        <v>0.9853707734245496</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.06263686244255</v>
+        <v>0.9547525201630844</v>
       </c>
       <c r="D14">
-        <v>1.072286245424768</v>
+        <v>0.9698725065528292</v>
       </c>
       <c r="E14">
-        <v>1.057787854555535</v>
+        <v>0.9646427066603717</v>
       </c>
       <c r="F14">
-        <v>1.078867184292165</v>
+        <v>0.96834834053634</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044823710747249</v>
+        <v>1.032205626379953</v>
       </c>
       <c r="J14">
-        <v>1.069019444633654</v>
+        <v>0.9861753400791632</v>
       </c>
       <c r="K14">
-        <v>1.075727421745425</v>
+        <v>0.9854036110249614</v>
       </c>
       <c r="L14">
-        <v>1.061279655926264</v>
+        <v>0.9802815924347286</v>
       </c>
       <c r="M14">
-        <v>1.082285875192097</v>
+        <v>0.9839106980512391</v>
       </c>
       <c r="N14">
-        <v>1.070537574863278</v>
+        <v>0.9875758221779679</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.062855396966986</v>
+        <v>0.9563719798701551</v>
       </c>
       <c r="D15">
-        <v>1.072502389881715</v>
+        <v>0.971426383649146</v>
       </c>
       <c r="E15">
-        <v>1.057980153045923</v>
+        <v>0.9660448152857978</v>
       </c>
       <c r="F15">
-        <v>1.079099668450478</v>
+        <v>0.9699994064932083</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044882748053749</v>
+        <v>1.032775705981283</v>
       </c>
       <c r="J15">
-        <v>1.069200830454539</v>
+        <v>0.9875166481689038</v>
       </c>
       <c r="K15">
-        <v>1.075924080068949</v>
+        <v>0.9868329977701332</v>
       </c>
       <c r="L15">
-        <v>1.061452236667795</v>
+        <v>0.9815611269964698</v>
       </c>
       <c r="M15">
-        <v>1.082498957967713</v>
+        <v>0.9854349517773189</v>
       </c>
       <c r="N15">
-        <v>1.070719218272834</v>
+        <v>0.9889190350790463</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.064125145206342</v>
+        <v>0.9655337587933325</v>
       </c>
       <c r="D16">
-        <v>1.07375835617497</v>
+        <v>0.980221829078726</v>
       </c>
       <c r="E16">
-        <v>1.059097295576955</v>
+        <v>0.9739805537983125</v>
       </c>
       <c r="F16">
-        <v>1.080450763879989</v>
+        <v>0.9793454909943428</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045224869032705</v>
+        <v>1.035994382742673</v>
       </c>
       <c r="J16">
-        <v>1.070254326294937</v>
+        <v>0.9951034635040635</v>
       </c>
       <c r="K16">
-        <v>1.077066496425736</v>
+        <v>0.9949198500573929</v>
       </c>
       <c r="L16">
-        <v>1.062454465091943</v>
+        <v>0.9887979316451104</v>
       </c>
       <c r="M16">
-        <v>1.083737008361974</v>
+        <v>0.9940601508230561</v>
       </c>
       <c r="N16">
-        <v>1.071774210198163</v>
+        <v>0.996516624562202</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.064919698905674</v>
+        <v>0.9710654305352299</v>
       </c>
       <c r="D17">
-        <v>1.074544377660121</v>
+        <v>0.9855361377322437</v>
       </c>
       <c r="E17">
-        <v>1.05979620799476</v>
+        <v>0.97877473663584</v>
       </c>
       <c r="F17">
-        <v>1.081296481151438</v>
+        <v>0.9849930416202013</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045438158500299</v>
+        <v>1.037931938143603</v>
       </c>
       <c r="J17">
-        <v>1.070913199364686</v>
+        <v>0.9996827984986738</v>
       </c>
       <c r="K17">
-        <v>1.077781173072116</v>
+        <v>0.9998026144107319</v>
       </c>
       <c r="L17">
-        <v>1.063081162997276</v>
+        <v>0.9931654459813045</v>
       </c>
       <c r="M17">
-        <v>1.084511707592875</v>
+        <v>0.9992694150480961</v>
       </c>
       <c r="N17">
-        <v>1.072434018943245</v>
+        <v>1.001102462737762</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.065382465163932</v>
+        <v>0.9742206102054831</v>
       </c>
       <c r="D18">
-        <v>1.075002207483809</v>
+        <v>0.9885686129423029</v>
       </c>
       <c r="E18">
-        <v>1.060203217396933</v>
+        <v>0.9815101296266612</v>
       </c>
       <c r="F18">
-        <v>1.081789139783535</v>
+        <v>0.9882158978002751</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045562096474425</v>
+        <v>1.039034933551733</v>
       </c>
       <c r="J18">
-        <v>1.071296812585671</v>
+        <v>1.002294198033236</v>
       </c>
       <c r="K18">
-        <v>1.078197345552608</v>
+        <v>1.002587628244686</v>
       </c>
       <c r="L18">
-        <v>1.063446002830638</v>
+        <v>0.9956558419491062</v>
       </c>
       <c r="M18">
-        <v>1.084962903076655</v>
+        <v>1.002241188440377</v>
       </c>
       <c r="N18">
-        <v>1.072818176939004</v>
+        <v>1.003717570759194</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.065540141559102</v>
+        <v>0.975284878063357</v>
       </c>
       <c r="D19">
-        <v>1.075158207473688</v>
+        <v>0.9895916996547057</v>
       </c>
       <c r="E19">
-        <v>1.060341886959066</v>
+        <v>0.9824329357409395</v>
       </c>
       <c r="F19">
-        <v>1.081957017133505</v>
+        <v>0.9893032554567764</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045604276688563</v>
+        <v>1.039406611078633</v>
       </c>
       <c r="J19">
-        <v>1.071427497518625</v>
+        <v>1.003174939150162</v>
       </c>
       <c r="K19">
-        <v>1.078339134097936</v>
+        <v>1.00352702273858</v>
       </c>
       <c r="L19">
-        <v>1.063570285458163</v>
+        <v>0.9964957356919062</v>
       </c>
       <c r="M19">
-        <v>1.085116635799301</v>
+        <v>1.003243668642956</v>
       </c>
       <c r="N19">
-        <v>1.072949047459553</v>
+        <v>1.004599562629529</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.06483452174488</v>
+        <v>0.9704794450894397</v>
       </c>
       <c r="D20">
-        <v>1.074460111751689</v>
+        <v>0.9849730429837</v>
       </c>
       <c r="E20">
-        <v>1.059721289201317</v>
+        <v>0.978266782429806</v>
       </c>
       <c r="F20">
-        <v>1.081205809507146</v>
+        <v>0.9843946143403131</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045415323265912</v>
+        <v>1.037726910925483</v>
       </c>
       <c r="J20">
-        <v>1.070842580742321</v>
+        <v>0.9991977558615512</v>
       </c>
       <c r="K20">
-        <v>1.077704566235013</v>
+        <v>0.9992853719587441</v>
       </c>
       <c r="L20">
-        <v>1.063013997097562</v>
+        <v>0.992702861177953</v>
       </c>
       <c r="M20">
-        <v>1.084428659586104</v>
+        <v>0.9987175304621353</v>
       </c>
       <c r="N20">
-        <v>1.072363300034337</v>
+        <v>1.000616731284459</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.062532376354338</v>
+        <v>0.9539735820151597</v>
       </c>
       <c r="D21">
-        <v>1.07218290394459</v>
+        <v>0.9691252020436529</v>
       </c>
       <c r="E21">
-        <v>1.057695909537795</v>
+        <v>0.9639683820908113</v>
       </c>
       <c r="F21">
-        <v>1.078756033819399</v>
+        <v>0.9675543031134231</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044795467773983</v>
+        <v>1.031931312028498</v>
       </c>
       <c r="J21">
-        <v>1.068932712936376</v>
+        <v>0.9855301674842368</v>
       </c>
       <c r="K21">
-        <v>1.075633391169377</v>
+        <v>0.9847161056389616</v>
       </c>
       <c r="L21">
-        <v>1.061197132224731</v>
+        <v>0.979666122656578</v>
       </c>
       <c r="M21">
-        <v>1.08218399532477</v>
+        <v>0.983177592732372</v>
       </c>
       <c r="N21">
-        <v>1.070450719997042</v>
+        <v>0.9869297333639546</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.06107854132562</v>
+        <v>0.9428057393360253</v>
       </c>
       <c r="D22">
-        <v>1.0707451195555</v>
+        <v>0.9584173343045811</v>
       </c>
       <c r="E22">
-        <v>1.056416377620987</v>
+        <v>0.9543057018293933</v>
       </c>
       <c r="F22">
-        <v>1.077209817746779</v>
+        <v>0.9561772440704658</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04440143161127</v>
+        <v>1.027990900413308</v>
       </c>
       <c r="J22">
-        <v>1.067725436732581</v>
+        <v>0.976278969580716</v>
       </c>
       <c r="K22">
-        <v>1.07432477217194</v>
+        <v>0.9748601481605581</v>
       </c>
       <c r="L22">
-        <v>1.060048280003532</v>
+        <v>0.9708401739952596</v>
       </c>
       <c r="M22">
-        <v>1.080766398829621</v>
+        <v>0.9726698648305365</v>
       </c>
       <c r="N22">
-        <v>1.069241729322561</v>
+        <v>0.9776653976982838</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.061849863122882</v>
+        <v>0.9488092898580023</v>
       </c>
       <c r="D23">
-        <v>1.071507896976914</v>
+        <v>0.9641721124443107</v>
       </c>
       <c r="E23">
-        <v>1.057095269251942</v>
+        <v>0.959498860976661</v>
       </c>
       <c r="F23">
-        <v>1.078030071081642</v>
+        <v>0.9622915836889244</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044610729585202</v>
+        <v>1.030110844457692</v>
       </c>
       <c r="J23">
-        <v>1.068366059116709</v>
+        <v>0.9812524204161778</v>
       </c>
       <c r="K23">
-        <v>1.075019111550635</v>
+        <v>0.9801582063678116</v>
       </c>
       <c r="L23">
-        <v>1.060657935292459</v>
+        <v>0.9755851563287995</v>
       </c>
       <c r="M23">
-        <v>1.081518500238014</v>
+        <v>0.978317843810861</v>
       </c>
       <c r="N23">
-        <v>1.069883261463955</v>
+        <v>0.9826459114043945</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.064873011748176</v>
+        <v>0.9707444457025108</v>
       </c>
       <c r="D24">
-        <v>1.074498189874932</v>
+        <v>0.9852276877634469</v>
       </c>
       <c r="E24">
-        <v>1.059755143800258</v>
+        <v>0.9784964922510908</v>
       </c>
       <c r="F24">
-        <v>1.081246782077978</v>
+        <v>0.9846652366185777</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045425642977837</v>
+        <v>1.037819637271542</v>
       </c>
       <c r="J24">
-        <v>1.070874492408567</v>
+        <v>0.9994171088704191</v>
       </c>
       <c r="K24">
-        <v>1.07773918368685</v>
+        <v>0.9995192850199057</v>
       </c>
       <c r="L24">
-        <v>1.063044348646101</v>
+        <v>0.9929120586415771</v>
       </c>
       <c r="M24">
-        <v>1.084466187485497</v>
+        <v>0.9989671081084786</v>
       </c>
       <c r="N24">
-        <v>1.072395257018808</v>
+        <v>1.00083639579976</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.068354508725117</v>
+        <v>0.9934334994371151</v>
       </c>
       <c r="D25">
-        <v>1.077943134690414</v>
+        <v>1.007054077968122</v>
       </c>
       <c r="E25">
-        <v>1.062816208833517</v>
+        <v>0.9981786894123561</v>
       </c>
       <c r="F25">
-        <v>1.084954843379055</v>
+        <v>1.007866553468208</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046352896832358</v>
+        <v>1.045712267854172</v>
       </c>
       <c r="J25">
-        <v>1.073758171130946</v>
+        <v>1.018183891515883</v>
       </c>
       <c r="K25">
-        <v>1.080868855054144</v>
+        <v>1.019543866587917</v>
       </c>
       <c r="L25">
-        <v>1.065786186122342</v>
+        <v>1.010805344831267</v>
       </c>
       <c r="M25">
-        <v>1.087860504200513</v>
+        <v>1.020343966489974</v>
       </c>
       <c r="N25">
-        <v>1.075283030895736</v>
+        <v>1.01962982942916</v>
       </c>
     </row>
   </sheetData>
